--- a/flows/QQQ_fund_flow_data.xlsx
+++ b/flows/QQQ_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6076"/>
+  <dimension ref="A1:B6094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61195,6 +61195,186 @@
         <v>-1260.1486</v>
       </c>
     </row>
+    <row r="6077">
+      <c r="A6077" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B6077" t="n">
+        <v>1829.9424</v>
+      </c>
+    </row>
+    <row r="6078">
+      <c r="A6078" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B6078" t="n">
+        <v>-1797.3702</v>
+      </c>
+    </row>
+    <row r="6079">
+      <c r="A6079" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B6079" t="n">
+        <v>698.8016</v>
+      </c>
+    </row>
+    <row r="6080">
+      <c r="A6080" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B6080" t="n">
+        <v>1855.72</v>
+      </c>
+    </row>
+    <row r="6081">
+      <c r="A6081" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B6081" t="n">
+        <v>240.65636</v>
+      </c>
+    </row>
+    <row r="6082">
+      <c r="A6082" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B6082" t="n">
+        <v>696.3872</v>
+      </c>
+    </row>
+    <row r="6083">
+      <c r="A6083" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B6083" t="n">
+        <v>263.6784</v>
+      </c>
+    </row>
+    <row r="6084">
+      <c r="A6084" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B6084" t="n">
+        <v>289.7544</v>
+      </c>
+    </row>
+    <row r="6085">
+      <c r="A6085" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B6085" t="n">
+        <v>-1087.658</v>
+      </c>
+    </row>
+    <row r="6086">
+      <c r="A6086" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B6086" t="n">
+        <v>414.15155</v>
+      </c>
+    </row>
+    <row r="6087">
+      <c r="A6087" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B6087" t="n">
+        <v>-285.25836</v>
+      </c>
+    </row>
+    <row r="6088">
+      <c r="A6088" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B6088" t="n">
+        <v>-1136.6013</v>
+      </c>
+    </row>
+    <row r="6089">
+      <c r="A6089" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B6089" t="n">
+        <v>-1009.5229</v>
+      </c>
+    </row>
+    <row r="6090">
+      <c r="A6090" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B6090" t="n">
+        <v>2754.9397</v>
+      </c>
+    </row>
+    <row r="6091">
+      <c r="A6091" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B6091" t="n">
+        <v>-1997.118</v>
+      </c>
+    </row>
+    <row r="6092">
+      <c r="A6092" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B6092" t="n">
+        <v>748.2329</v>
+      </c>
+    </row>
+    <row r="6093">
+      <c r="A6093" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B6093" t="n">
+        <v>-1382.4594</v>
+      </c>
+    </row>
+    <row r="6094">
+      <c r="A6094" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B6094" t="n">
+        <v>1518.468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
